--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.648851017954914</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N2">
-        <v>0.648851017954914</v>
+        <v>0.341213</v>
       </c>
       <c r="O2">
-        <v>0.005052891924841843</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P2">
-        <v>0.005052891924841843</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q2">
-        <v>89.47082440156746</v>
+        <v>17.25696936386611</v>
       </c>
       <c r="R2">
-        <v>89.47082440156746</v>
+        <v>155.312724274795</v>
       </c>
       <c r="S2">
-        <v>0.001321796144279661</v>
+        <v>0.0002194305668322661</v>
       </c>
       <c r="T2">
-        <v>0.001321796144279661</v>
+        <v>0.0002264562510148862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.43064945394</v>
+        <v>0.69982</v>
       </c>
       <c r="N3">
-        <v>31.43064945394</v>
+        <v>2.09946</v>
       </c>
       <c r="O3">
-        <v>0.2447644689206353</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P3">
-        <v>0.2447644689206353</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q3">
-        <v>4334.008948593637</v>
+        <v>106.1809394737667</v>
       </c>
       <c r="R3">
-        <v>4334.008948593637</v>
+        <v>955.6284552639002</v>
       </c>
       <c r="S3">
-        <v>0.06402842888552009</v>
+        <v>0.001350141107875929</v>
       </c>
       <c r="T3">
-        <v>0.06402842888552009</v>
+        <v>0.001393369656946579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>96.3323135162349</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N4">
-        <v>96.3323135162349</v>
+        <v>97.729883</v>
       </c>
       <c r="O4">
-        <v>0.750182639154523</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P4">
-        <v>0.750182639154523</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q4">
-        <v>13283.37517905642</v>
+        <v>4942.723744010983</v>
       </c>
       <c r="R4">
-        <v>13283.37517905642</v>
+        <v>44484.51369609885</v>
       </c>
       <c r="S4">
-        <v>0.1962417828620044</v>
+        <v>0.06284908143341855</v>
       </c>
       <c r="T4">
-        <v>0.1962417828620044</v>
+        <v>0.06486137080446368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.648851017954914</v>
+        <v>106.018215</v>
       </c>
       <c r="N5">
-        <v>0.648851017954914</v>
+        <v>318.054645</v>
       </c>
       <c r="O5">
-        <v>0.005052891924841843</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P5">
-        <v>0.005052891924841843</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q5">
-        <v>49.05655230747115</v>
+        <v>16085.72728706208</v>
       </c>
       <c r="R5">
-        <v>49.05655230747115</v>
+        <v>144771.5455835587</v>
       </c>
       <c r="S5">
-        <v>0.000724736383344791</v>
+        <v>0.204537667193176</v>
       </c>
       <c r="T5">
-        <v>0.000724736383344791</v>
+        <v>0.2110865134815219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>31.43064945394</v>
+        <v>0.5793</v>
       </c>
       <c r="N6">
-        <v>31.43064945394</v>
+        <v>1.1586</v>
       </c>
       <c r="O6">
-        <v>0.2447644689206353</v>
+        <v>0.004138220705251913</v>
       </c>
       <c r="P6">
-        <v>0.2447644689206353</v>
+        <v>0.002762624586923423</v>
       </c>
       <c r="Q6">
-        <v>2376.32253988717</v>
+        <v>87.89491331650001</v>
       </c>
       <c r="R6">
-        <v>2376.32253988717</v>
+        <v>527.3694798990001</v>
       </c>
       <c r="S6">
-        <v>0.03510657235804664</v>
+        <v>0.001117625594856571</v>
       </c>
       <c r="T6">
-        <v>0.03510657235804664</v>
+        <v>0.000768939672362563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>96.3323135162349</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N7">
-        <v>96.3323135162349</v>
+        <v>0.341213</v>
       </c>
       <c r="O7">
-        <v>0.750182639154523</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P7">
-        <v>0.750182639154523</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q7">
-        <v>7283.229965183255</v>
+        <v>9.354794673507666</v>
       </c>
       <c r="R7">
-        <v>7283.229965183255</v>
+        <v>84.19315206156899</v>
       </c>
       <c r="S7">
-        <v>0.1075987099735795</v>
+        <v>0.0001189506601376601</v>
       </c>
       <c r="T7">
-        <v>0.1075987099735795</v>
+        <v>0.0001227591986813363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.648851017954914</v>
+        <v>0.69982</v>
       </c>
       <c r="N8">
-        <v>0.648851017954914</v>
+        <v>2.09946</v>
       </c>
       <c r="O8">
-        <v>0.005052891924841843</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P8">
-        <v>0.005052891924841843</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q8">
-        <v>73.91498044330243</v>
+        <v>57.55940490322</v>
       </c>
       <c r="R8">
-        <v>73.91498044330243</v>
+        <v>518.0346441289801</v>
       </c>
       <c r="S8">
-        <v>0.001091982071339359</v>
+        <v>0.0007318951884383417</v>
       </c>
       <c r="T8">
-        <v>0.001091982071339359</v>
+        <v>0.0007553288628027603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.43064945394</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N9">
-        <v>31.43064945394</v>
+        <v>97.729883</v>
       </c>
       <c r="O9">
-        <v>0.2447644689206353</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P9">
-        <v>0.2447644689206353</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q9">
-        <v>3580.476527617467</v>
+        <v>2679.390846570698</v>
       </c>
       <c r="R9">
-        <v>3580.476527617467</v>
+        <v>24114.51761913628</v>
       </c>
       <c r="S9">
-        <v>0.05289612676024125</v>
+        <v>0.03406972799402803</v>
       </c>
       <c r="T9">
-        <v>0.05289612676024125</v>
+        <v>0.03516056575892697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>96.3323135162349</v>
+        <v>106.018215</v>
       </c>
       <c r="N10">
-        <v>96.3323135162349</v>
+        <v>318.054645</v>
       </c>
       <c r="O10">
-        <v>0.750182639154523</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P10">
-        <v>0.750182639154523</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q10">
-        <v>10973.86129107583</v>
+        <v>8719.878489185265</v>
       </c>
       <c r="R10">
-        <v>10973.86129107583</v>
+        <v>78478.90640266739</v>
       </c>
       <c r="S10">
-        <v>0.1621222073164416</v>
+        <v>0.1108773991102307</v>
       </c>
       <c r="T10">
-        <v>0.1621222073164416</v>
+        <v>0.114427449590364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.648851017954914</v>
+        <v>0.5793</v>
       </c>
       <c r="N11">
-        <v>0.648851017954914</v>
+        <v>1.1586</v>
       </c>
       <c r="O11">
-        <v>0.005052891924841843</v>
+        <v>0.004138220705251913</v>
       </c>
       <c r="P11">
-        <v>0.005052891924841843</v>
+        <v>0.002762624586923423</v>
       </c>
       <c r="Q11">
-        <v>97.91293183386354</v>
+        <v>47.6467709703</v>
       </c>
       <c r="R11">
-        <v>97.91293183386354</v>
+        <v>285.8806258218</v>
       </c>
       <c r="S11">
-        <v>0.001446515516524633</v>
+        <v>0.0006058513370042746</v>
       </c>
       <c r="T11">
-        <v>0.001446515516524633</v>
+        <v>0.000416832909625941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>31.43064945394</v>
+        <v>0.1137376666666667</v>
       </c>
       <c r="N12">
-        <v>31.43064945394</v>
+        <v>0.341213</v>
       </c>
       <c r="O12">
-        <v>0.2447644689206353</v>
+        <v>0.0008124832852874854</v>
       </c>
       <c r="P12">
-        <v>0.2447644689206353</v>
+        <v>0.0008136055784376851</v>
       </c>
       <c r="Q12">
-        <v>4742.948615812341</v>
+        <v>14.040269033791</v>
       </c>
       <c r="R12">
-        <v>4742.948615812341</v>
+        <v>126.362421304119</v>
       </c>
       <c r="S12">
-        <v>0.07006989412279827</v>
+        <v>0.0001785286933992714</v>
       </c>
       <c r="T12">
-        <v>0.07006989412279827</v>
+        <v>0.0001842447895451556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.3323135162349</v>
+        <v>0.69982</v>
       </c>
       <c r="N13">
-        <v>96.3323135162349</v>
+        <v>2.09946</v>
       </c>
       <c r="O13">
-        <v>0.750182639154523</v>
+        <v>0.00499915348515345</v>
       </c>
       <c r="P13">
-        <v>0.750182639154523</v>
+        <v>0.005006058877319395</v>
       </c>
       <c r="Q13">
-        <v>14536.7410787801</v>
+        <v>86.38880472222</v>
       </c>
       <c r="R13">
-        <v>14536.7410787801</v>
+        <v>777.49924249998</v>
       </c>
       <c r="S13">
-        <v>0.2147583688519882</v>
+        <v>0.001098474708302539</v>
       </c>
       <c r="T13">
-        <v>0.2147583688519882</v>
+        <v>0.001133645452718602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.648851017954914</v>
+        <v>32.57662766666667</v>
       </c>
       <c r="N14">
-        <v>0.648851017954914</v>
+        <v>97.729883</v>
       </c>
       <c r="O14">
-        <v>0.005052891924841843</v>
+        <v>0.2327106423571246</v>
       </c>
       <c r="P14">
-        <v>0.005052891924841843</v>
+        <v>0.2330320884282319</v>
       </c>
       <c r="Q14">
-        <v>31.66901490068275</v>
+        <v>4021.399682781481</v>
       </c>
       <c r="R14">
-        <v>31.66901490068275</v>
+        <v>36192.59714503333</v>
       </c>
       <c r="S14">
-        <v>0.000467861809353399</v>
+        <v>0.05113400813583791</v>
       </c>
       <c r="T14">
-        <v>0.000467861809353399</v>
+        <v>0.05277120662345127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.43064945394</v>
+        <v>106.018215</v>
       </c>
       <c r="N15">
-        <v>31.43064945394</v>
+        <v>318.054645</v>
       </c>
       <c r="O15">
-        <v>0.2447644689206353</v>
+        <v>0.7573395001671825</v>
       </c>
       <c r="P15">
-        <v>0.2447644689206353</v>
+        <v>0.7583856225290877</v>
       </c>
       <c r="Q15">
-        <v>1534.062024025563</v>
+        <v>13087.34656430702</v>
       </c>
       <c r="R15">
-        <v>1534.062024025563</v>
+        <v>117786.1190787631</v>
       </c>
       <c r="S15">
-        <v>0.02266344679402907</v>
+        <v>0.1664118313235987</v>
       </c>
       <c r="T15">
-        <v>0.02266344679402907</v>
+        <v>0.1717399721929826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>123.444321</v>
+      </c>
+      <c r="H16">
+        <v>370.332963</v>
+      </c>
+      <c r="I16">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J16">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.5793</v>
+      </c>
+      <c r="N16">
+        <v>1.1586</v>
+      </c>
+      <c r="O16">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P16">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q16">
+        <v>71.5112951553</v>
+      </c>
+      <c r="R16">
+        <v>429.0677709318001</v>
+      </c>
+      <c r="S16">
+        <v>0.0009093001036261623</v>
+      </c>
+      <c r="T16">
+        <v>0.0006256092621530166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>96.3323135162349</v>
-      </c>
-      <c r="N16">
-        <v>96.3323135162349</v>
-      </c>
-      <c r="O16">
-        <v>0.750182639154523</v>
-      </c>
-      <c r="P16">
-        <v>0.750182639154523</v>
-      </c>
-      <c r="Q16">
-        <v>4701.771882516905</v>
-      </c>
-      <c r="R16">
-        <v>4701.771882516905</v>
-      </c>
-      <c r="S16">
-        <v>0.0694615701505092</v>
-      </c>
-      <c r="T16">
-        <v>0.0694615701505092</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1137376666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.341213</v>
+      </c>
+      <c r="O17">
+        <v>0.0008124832852874854</v>
+      </c>
+      <c r="P17">
+        <v>0.0008136055784376851</v>
+      </c>
+      <c r="Q17">
+        <v>17.55461003245444</v>
+      </c>
+      <c r="R17">
+        <v>157.99149029209</v>
+      </c>
+      <c r="S17">
+        <v>0.0002232152093870258</v>
+      </c>
+      <c r="T17">
+        <v>0.0002303620695011385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H18">
+        <v>463.02893</v>
+      </c>
+      <c r="I18">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J18">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.69982</v>
+      </c>
+      <c r="N18">
+        <v>2.09946</v>
+      </c>
+      <c r="O18">
+        <v>0.00499915348515345</v>
+      </c>
+      <c r="P18">
+        <v>0.005006058877319395</v>
+      </c>
+      <c r="Q18">
+        <v>108.0123019308667</v>
+      </c>
+      <c r="R18">
+        <v>972.1107173778</v>
+      </c>
+      <c r="S18">
+        <v>0.00137342775187254</v>
+      </c>
+      <c r="T18">
+        <v>0.001417401888072437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H19">
+        <v>463.02893</v>
+      </c>
+      <c r="I19">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J19">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.57662766666667</v>
+      </c>
+      <c r="N19">
+        <v>97.729883</v>
+      </c>
+      <c r="O19">
+        <v>0.2327106423571246</v>
+      </c>
+      <c r="P19">
+        <v>0.2330320884282319</v>
+      </c>
+      <c r="Q19">
+        <v>5027.973683835021</v>
+      </c>
+      <c r="R19">
+        <v>45251.76315451519</v>
+      </c>
+      <c r="S19">
+        <v>0.06393307493329542</v>
+      </c>
+      <c r="T19">
+        <v>0.0659800713923096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H20">
+        <v>463.02893</v>
+      </c>
+      <c r="I20">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J20">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>106.018215</v>
+      </c>
+      <c r="N20">
+        <v>318.054645</v>
+      </c>
+      <c r="O20">
+        <v>0.7573395001671825</v>
+      </c>
+      <c r="P20">
+        <v>0.7583856225290877</v>
+      </c>
+      <c r="Q20">
+        <v>16363.16688398665</v>
+      </c>
+      <c r="R20">
+        <v>147268.5019558799</v>
+      </c>
+      <c r="S20">
+        <v>0.2080654435211763</v>
+      </c>
+      <c r="T20">
+        <v>0.2147272414493291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H21">
+        <v>463.02893</v>
+      </c>
+      <c r="I21">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J21">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5793</v>
+      </c>
+      <c r="N21">
+        <v>1.1586</v>
+      </c>
+      <c r="O21">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P21">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q21">
+        <v>89.410886383</v>
+      </c>
+      <c r="R21">
+        <v>536.4653182980001</v>
+      </c>
+      <c r="S21">
+        <v>0.001136901912862969</v>
+      </c>
+      <c r="T21">
+        <v>0.0007822020079071405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.0323125</v>
+      </c>
+      <c r="H22">
+        <v>100.064625</v>
+      </c>
+      <c r="I22">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J22">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1137376666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.341213</v>
+      </c>
+      <c r="O22">
+        <v>0.0008124832852874854</v>
+      </c>
+      <c r="P22">
+        <v>0.0008136055784376851</v>
+      </c>
+      <c r="Q22">
+        <v>5.690558481687501</v>
+      </c>
+      <c r="R22">
+        <v>34.143350890125</v>
+      </c>
+      <c r="S22">
+        <v>7.2358155531262E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.978326969516864E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.0323125</v>
+      </c>
+      <c r="H23">
+        <v>100.064625</v>
+      </c>
+      <c r="I23">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J23">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.69982</v>
+      </c>
+      <c r="N23">
+        <v>2.09946</v>
+      </c>
+      <c r="O23">
+        <v>0.00499915348515345</v>
+      </c>
+      <c r="P23">
+        <v>0.005006058877319395</v>
+      </c>
+      <c r="Q23">
+        <v>35.01361293375</v>
+      </c>
+      <c r="R23">
+        <v>210.0816776025</v>
+      </c>
+      <c r="S23">
+        <v>0.0004452147286640993</v>
+      </c>
+      <c r="T23">
+        <v>0.0003063130167790171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.0323125</v>
+      </c>
+      <c r="H24">
+        <v>100.064625</v>
+      </c>
+      <c r="I24">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J24">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>32.57662766666667</v>
+      </c>
+      <c r="N24">
+        <v>97.729883</v>
+      </c>
+      <c r="O24">
+        <v>0.2327106423571246</v>
+      </c>
+      <c r="P24">
+        <v>0.2330320884282319</v>
+      </c>
+      <c r="Q24">
+        <v>1629.884015614813</v>
+      </c>
+      <c r="R24">
+        <v>9779.304093688876</v>
+      </c>
+      <c r="S24">
+        <v>0.0207247498605447</v>
+      </c>
+      <c r="T24">
+        <v>0.01425887384908042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.0323125</v>
+      </c>
+      <c r="H25">
+        <v>100.064625</v>
+      </c>
+      <c r="I25">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J25">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>106.018215</v>
+      </c>
+      <c r="N25">
+        <v>318.054645</v>
+      </c>
+      <c r="O25">
+        <v>0.7573395001671825</v>
+      </c>
+      <c r="P25">
+        <v>0.7583856225290877</v>
+      </c>
+      <c r="Q25">
+        <v>5304.336463572187</v>
+      </c>
+      <c r="R25">
+        <v>31826.01878143313</v>
+      </c>
+      <c r="S25">
+        <v>0.06744715901900079</v>
+      </c>
+      <c r="T25">
+        <v>0.04640444581489018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.0323125</v>
+      </c>
+      <c r="H26">
+        <v>100.064625</v>
+      </c>
+      <c r="I26">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J26">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.5793</v>
+      </c>
+      <c r="N26">
+        <v>1.1586</v>
+      </c>
+      <c r="O26">
+        <v>0.004138220705251913</v>
+      </c>
+      <c r="P26">
+        <v>0.002762624586923423</v>
+      </c>
+      <c r="Q26">
+        <v>28.98371863125</v>
+      </c>
+      <c r="R26">
+        <v>115.934874525</v>
+      </c>
+      <c r="S26">
+        <v>0.0003685417569019359</v>
+      </c>
+      <c r="T26">
+        <v>0.0001690407348747627</v>
       </c>
     </row>
   </sheetData>
